--- a/Results/xlsx/RS230019BOS01.xlsx
+++ b/Results/xlsx/RS230019BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,8 +468,666 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4134</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4135</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4175</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4176</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4294</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4295</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4374</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4375</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4506</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4507</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4586</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4587</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4705</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4706</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
